--- a/public/template/设备润滑标准.xlsx
+++ b/public/template/设备润滑标准.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="525" windowWidth="27735" windowHeight="12375"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>设备编号</t>
   </si>
@@ -34,9 +34,6 @@
     <t>用量</t>
   </si>
   <si>
-    <t>单位</t>
-  </si>
-  <si>
     <t>首保周期</t>
   </si>
   <si>
@@ -50,12 +47,6 @@
   </si>
   <si>
     <t>一号破碎站板式给料机左侧电动机前端轴承</t>
-  </si>
-  <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t>L</t>
   </si>
   <si>
     <t>一号破碎站板式给料机右侧电动机后端轴承</t>
@@ -154,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -240,74 +231,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -316,7 +244,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="535353"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -597,11 +525,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -610,14 +538,14 @@
     <col min="2" max="3" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="6" max="6" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -645,11 +573,8 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -657,10 +582,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="2">
         <v>10209358</v>
@@ -668,20 +593,17 @@
       <c r="F2" s="1">
         <v>100</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
+      <c r="G2" s="1">
+        <v>500</v>
       </c>
       <c r="H2" s="1">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="I2" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J2" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -689,10 +611,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2">
         <v>10209348</v>
@@ -700,20 +622,17 @@
       <c r="F3" s="1">
         <v>100</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
+      <c r="G3" s="1">
+        <v>500</v>
       </c>
       <c r="H3" s="1">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="I3" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J3" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>100</v>
       </c>
@@ -721,10 +640,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E4" s="2">
         <v>10209351</v>
@@ -732,20 +651,17 @@
       <c r="F4" s="1">
         <v>100</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
+      <c r="G4" s="1">
+        <v>500</v>
       </c>
       <c r="H4" s="1">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="I4" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J4" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>100</v>
       </c>
@@ -753,10 +669,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2">
         <v>10209286</v>
@@ -764,20 +680,17 @@
       <c r="F5" s="1">
         <v>100</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
+      <c r="G5" s="1">
+        <v>500</v>
       </c>
       <c r="H5" s="1">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="I5" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J5" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>100</v>
       </c>
@@ -785,10 +698,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2">
         <v>10209288</v>
@@ -796,20 +709,17 @@
       <c r="F6" s="1">
         <v>100</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
+      <c r="G6" s="1">
+        <v>500</v>
       </c>
       <c r="H6" s="1">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="I6" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J6" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -817,10 +727,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2">
         <v>10209289</v>
@@ -828,20 +738,17 @@
       <c r="F7" s="1">
         <v>100</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
+      <c r="G7" s="1">
+        <v>500</v>
       </c>
       <c r="H7" s="1">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="I7" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J7" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>100</v>
       </c>
@@ -849,10 +756,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2">
         <v>11102440</v>
@@ -860,20 +767,17 @@
       <c r="F8" s="1">
         <v>100</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
+      <c r="G8" s="1">
+        <v>500</v>
       </c>
       <c r="H8" s="1">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="I8" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J8" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>100</v>
       </c>
@@ -881,10 +785,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2">
         <v>10209398</v>
@@ -892,52 +796,46 @@
       <c r="F9" s="1">
         <v>100</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
+      <c r="G9" s="1">
+        <v>0</v>
       </c>
       <c r="H9" s="1">
+        <v>3500</v>
+      </c>
+      <c r="I9" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>100</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1">
+        <v>100</v>
+      </c>
+      <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J9" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1">
-        <v>100</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1">
-        <v>100</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="I10" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J10" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>100</v>
       </c>
@@ -945,10 +843,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2">
         <v>10209315</v>
@@ -956,20 +854,17 @@
       <c r="F11" s="1">
         <v>100</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
+      <c r="G11" s="1">
+        <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="I11" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J11" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>100</v>
       </c>
@@ -977,10 +872,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3">
         <v>11249919</v>
@@ -988,20 +883,17 @@
       <c r="F12" s="1">
         <v>100</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
+      <c r="G12" s="1">
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="I12" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J12" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>100</v>
       </c>
@@ -1009,10 +901,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3">
         <v>10061964</v>
@@ -1020,20 +912,17 @@
       <c r="F13" s="1">
         <v>100</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
+      <c r="G13" s="1">
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="I13" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J13" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>100</v>
       </c>
@@ -1041,10 +930,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3">
         <v>11249923</v>
@@ -1052,20 +941,17 @@
       <c r="F14" s="1">
         <v>100</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
+      <c r="G14" s="1">
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="I14" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J14" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>100</v>
       </c>
@@ -1073,10 +959,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E15" s="3">
         <v>11249924</v>
@@ -1084,20 +970,17 @@
       <c r="F15" s="1">
         <v>100</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
+      <c r="G15" s="1">
+        <v>500</v>
       </c>
       <c r="H15" s="1">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="I15" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J15" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>100</v>
       </c>
@@ -1105,10 +988,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16" s="3">
         <v>10889994</v>
@@ -1116,20 +999,17 @@
       <c r="F16" s="1">
         <v>100</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>13</v>
+      <c r="G16" s="1">
+        <v>500</v>
       </c>
       <c r="H16" s="1">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="I16" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J16" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>100</v>
       </c>
@@ -1137,10 +1017,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E17" s="3">
         <v>10889996</v>
@@ -1148,20 +1028,17 @@
       <c r="F17" s="1">
         <v>100</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>13</v>
+      <c r="G17" s="1">
+        <v>500</v>
       </c>
       <c r="H17" s="1">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="I17" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J17" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>100</v>
       </c>
@@ -1169,10 +1046,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E18" s="3">
         <v>11249907</v>
@@ -1180,20 +1057,17 @@
       <c r="F18" s="1">
         <v>100</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>12</v>
+      <c r="G18" s="1">
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="I18" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J18" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>200</v>
       </c>
@@ -1201,10 +1075,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2">
         <v>10209351</v>
@@ -1212,20 +1086,17 @@
       <c r="F19" s="1">
         <v>100</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>12</v>
+      <c r="G19" s="1">
+        <v>500</v>
       </c>
       <c r="H19" s="1">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="I19" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J19" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>200</v>
       </c>
@@ -1233,10 +1104,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2">
         <v>10209286</v>
@@ -1244,20 +1115,17 @@
       <c r="F20" s="1">
         <v>100</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>12</v>
+      <c r="G20" s="1">
+        <v>500</v>
       </c>
       <c r="H20" s="1">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="I20" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J20" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>200</v>
       </c>
@@ -1265,10 +1133,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2">
         <v>10209288</v>
@@ -1276,20 +1144,17 @@
       <c r="F21" s="1">
         <v>100</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>12</v>
+      <c r="G21" s="1">
+        <v>500</v>
       </c>
       <c r="H21" s="1">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="I21" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J21" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>200</v>
       </c>
@@ -1297,10 +1162,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E22" s="2">
         <v>10209289</v>
@@ -1308,20 +1173,17 @@
       <c r="F22" s="1">
         <v>100</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>12</v>
+      <c r="G22" s="1">
+        <v>500</v>
       </c>
       <c r="H22" s="1">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="I22" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J22" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>200</v>
       </c>
@@ -1329,10 +1191,10 @@
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2">
         <v>11102440</v>
@@ -1340,20 +1202,17 @@
       <c r="F23" s="1">
         <v>100</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>13</v>
+      <c r="G23" s="1">
+        <v>500</v>
       </c>
       <c r="H23" s="1">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="I23" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J23" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>200</v>
       </c>
@@ -1361,10 +1220,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2">
         <v>10209398</v>
@@ -1372,20 +1231,17 @@
       <c r="F24" s="1">
         <v>100</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>13</v>
+      <c r="G24" s="1">
+        <v>500</v>
       </c>
       <c r="H24" s="1">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="I24" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J24" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>200</v>
       </c>
@@ -1393,31 +1249,28 @@
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="1">
         <v>100</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>12</v>
+      <c r="G25" s="1">
+        <v>500</v>
       </c>
       <c r="H25" s="1">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="I25" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J25" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>200</v>
       </c>
@@ -1425,10 +1278,10 @@
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2">
         <v>10209315</v>
@@ -1436,20 +1289,17 @@
       <c r="F26" s="1">
         <v>100</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>12</v>
+      <c r="G26" s="1">
+        <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="I26" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J26" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>200</v>
       </c>
@@ -1457,10 +1307,10 @@
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E27" s="3">
         <v>11249919</v>
@@ -1468,20 +1318,17 @@
       <c r="F27" s="1">
         <v>100</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>12</v>
+      <c r="G27" s="1">
+        <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="I27" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J27" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>200</v>
       </c>
@@ -1489,10 +1336,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E28" s="3">
         <v>10061964</v>
@@ -1500,20 +1347,17 @@
       <c r="F28" s="1">
         <v>100</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>12</v>
+      <c r="G28" s="1">
+        <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="I28" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J28" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>200</v>
       </c>
@@ -1521,10 +1365,10 @@
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E29" s="3">
         <v>11249923</v>
@@ -1532,20 +1376,17 @@
       <c r="F29" s="1">
         <v>100</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>12</v>
+      <c r="G29" s="1">
+        <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="I29" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J29" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>200</v>
       </c>
@@ -1553,10 +1394,10 @@
         <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E30" s="3">
         <v>11249924</v>
@@ -1564,20 +1405,17 @@
       <c r="F30" s="1">
         <v>100</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>12</v>
+      <c r="G30" s="1">
+        <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="I30" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J30" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>200</v>
       </c>
@@ -1585,10 +1423,10 @@
         <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E31" s="3">
         <v>10889994</v>
@@ -1596,20 +1434,17 @@
       <c r="F31" s="1">
         <v>100</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>12</v>
+      <c r="G31" s="1">
+        <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="I31" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J31" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>200</v>
       </c>
@@ -1617,10 +1452,10 @@
         <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E32" s="3">
         <v>10889996</v>
@@ -1628,20 +1463,17 @@
       <c r="F32" s="1">
         <v>100</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>13</v>
+      <c r="G32" s="1">
+        <v>500</v>
       </c>
       <c r="H32" s="1">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="I32" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J32" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>200</v>
       </c>
@@ -1649,10 +1481,10 @@
         <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E33" s="3">
         <v>11249907</v>
@@ -1660,20 +1492,17 @@
       <c r="F33" s="1">
         <v>100</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>13</v>
+      <c r="G33" s="1">
+        <v>500</v>
       </c>
       <c r="H33" s="1">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="I33" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J33" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>200</v>
       </c>
@@ -1681,10 +1510,10 @@
         <v>16</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E34" s="3">
         <v>10705085</v>
@@ -1692,20 +1521,17 @@
       <c r="F34" s="1">
         <v>100</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>13</v>
+      <c r="G34" s="1">
+        <v>500</v>
       </c>
       <c r="H34" s="1">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="I34" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J34" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>200</v>
       </c>
@@ -1713,10 +1539,10 @@
         <v>17</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E35" s="3">
         <v>11249914</v>
@@ -1724,16 +1550,13 @@
       <c r="F35" s="1">
         <v>100</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>12</v>
+      <c r="G35" s="1">
+        <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="I35" s="1">
-        <v>3500</v>
-      </c>
-      <c r="J35" s="1">
         <v>500</v>
       </c>
     </row>

--- a/public/template/设备润滑标准.xlsx
+++ b/public/template/设备润滑标准.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
   <si>
     <t>设备编号</t>
   </si>
@@ -67,9 +67,6 @@
     <t>一号破碎站板式给料机头轮左侧轴承</t>
   </si>
   <si>
-    <t>10209313</t>
-  </si>
-  <si>
     <t>一号破碎站板式给料机尾轮左侧轴承</t>
   </si>
   <si>
@@ -140,13 +137,80 @@
   </si>
   <si>
     <t>二号破碎站破碎机机集中润滑泵</t>
+  </si>
+  <si>
+    <t>11249923
+11249924
+10889994
+10889996</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11249919
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10061964</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10209313
+10209315</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10209288
+10209289</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10209358
+10209348
+10209351</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10061964
+11249919</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>11249907
+10705085</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -182,6 +246,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -208,7 +285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -221,6 +298,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -529,7 +612,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -574,7 +657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="54">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -587,8 +670,8 @@
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
-        <v>10209358</v>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F2" s="1">
         <v>100</v>
@@ -603,7 +686,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="40.5">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -616,8 +699,8 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2">
-        <v>10209348</v>
+      <c r="E3" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="F3" s="1">
         <v>100</v>
@@ -632,7 +715,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="54">
       <c r="A4" s="1">
         <v>100</v>
       </c>
@@ -645,8 +728,8 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2">
-        <v>10209351</v>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F4" s="1">
         <v>100</v>
@@ -661,7 +744,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="27">
       <c r="A5" s="1">
         <v>100</v>
       </c>
@@ -674,8 +757,8 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2">
-        <v>10209286</v>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F5" s="1">
         <v>100</v>
@@ -690,7 +773,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="27">
       <c r="A6" s="1">
         <v>100</v>
       </c>
@@ -703,8 +786,8 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2">
-        <v>10209288</v>
+      <c r="E6" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F6" s="1">
         <v>100</v>
@@ -719,7 +802,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="27">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -732,8 +815,8 @@
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2">
-        <v>10209289</v>
+      <c r="E7" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F7" s="1">
         <v>100</v>
@@ -748,7 +831,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="27">
       <c r="A8" s="1">
         <v>100</v>
       </c>
@@ -761,8 +844,8 @@
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2">
-        <v>11102440</v>
+      <c r="E8" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="F8" s="1">
         <v>100</v>
@@ -791,7 +874,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="2">
-        <v>10209398</v>
+        <v>10209315</v>
       </c>
       <c r="F9" s="1">
         <v>100</v>
@@ -819,8 +902,8 @@
       <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
+      <c r="E10" s="2">
+        <v>10209313</v>
       </c>
       <c r="F10" s="1">
         <v>100</v>
@@ -846,7 +929,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2">
         <v>10209315</v>
@@ -875,9 +958,9 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="3">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2">
         <v>11249919</v>
       </c>
       <c r="F12" s="1">
@@ -904,10 +987,10 @@
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3">
-        <v>10061964</v>
+        <v>19</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10209315</v>
       </c>
       <c r="F13" s="1">
         <v>100</v>
@@ -933,10 +1016,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="3">
-        <v>11249923</v>
+        <v>20</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10209315</v>
       </c>
       <c r="F14" s="1">
         <v>100</v>
@@ -962,10 +1045,10 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="3">
-        <v>11249924</v>
+        <v>21</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10209288</v>
       </c>
       <c r="F15" s="1">
         <v>100</v>
@@ -991,10 +1074,10 @@
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="3">
-        <v>10889994</v>
+        <v>22</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10209315</v>
       </c>
       <c r="F16" s="1">
         <v>100</v>
@@ -1009,7 +1092,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="54">
       <c r="A17" s="1">
         <v>100</v>
       </c>
@@ -1020,10 +1103,10 @@
         <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="3">
-        <v>10889996</v>
+        <v>23</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="F17" s="1">
         <v>100</v>
@@ -1049,10 +1132,10 @@
         <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="3">
-        <v>11249907</v>
+        <v>10209288</v>
       </c>
       <c r="F18" s="1">
         <v>100</v>
@@ -1067,7 +1150,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="54">
       <c r="A19" s="1">
         <v>200</v>
       </c>
@@ -1075,13 +1158,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="2">
-        <v>10209351</v>
+      <c r="E19" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F19" s="1">
         <v>100</v>
@@ -1096,7 +1179,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="40.5">
       <c r="A20" s="1">
         <v>200</v>
       </c>
@@ -1104,13 +1187,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="2">
-        <v>10209286</v>
+        <v>27</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="F20" s="1">
         <v>100</v>
@@ -1125,7 +1208,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="54">
       <c r="A21" s="1">
         <v>200</v>
       </c>
@@ -1133,13 +1216,13 @@
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="2">
-        <v>10209288</v>
+      <c r="E21" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F21" s="1">
         <v>100</v>
@@ -1154,7 +1237,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" ht="27">
       <c r="A22" s="1">
         <v>200</v>
       </c>
@@ -1162,13 +1245,13 @@
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="2">
-        <v>10209289</v>
+        <v>28</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F22" s="1">
         <v>100</v>
@@ -1183,7 +1266,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" ht="27">
       <c r="A23" s="1">
         <v>200</v>
       </c>
@@ -1191,13 +1274,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="2">
-        <v>11102440</v>
+        <v>29</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F23" s="1">
         <v>100</v>
@@ -1212,7 +1295,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" ht="27">
       <c r="A24" s="1">
         <v>200</v>
       </c>
@@ -1220,13 +1303,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="2">
-        <v>10209398</v>
+        <v>30</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F24" s="1">
         <v>100</v>
@@ -1241,7 +1324,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" ht="27">
       <c r="A25" s="1">
         <v>200</v>
       </c>
@@ -1249,13 +1332,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="F25" s="1">
         <v>100</v>
@@ -1278,10 +1361,10 @@
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="2">
         <v>10209315</v>
@@ -1307,13 +1390,13 @@
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="3">
-        <v>11249919</v>
+        <v>32</v>
+      </c>
+      <c r="E27" s="2">
+        <v>10209313</v>
       </c>
       <c r="F27" s="1">
         <v>100</v>
@@ -1336,13 +1419,13 @@
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="3">
-        <v>10061964</v>
+        <v>33</v>
+      </c>
+      <c r="E28" s="2">
+        <v>10209315</v>
       </c>
       <c r="F28" s="1">
         <v>100</v>
@@ -1365,13 +1448,13 @@
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="3">
-        <v>11249923</v>
+        <v>34</v>
+      </c>
+      <c r="E29" s="2">
+        <v>11249919</v>
       </c>
       <c r="F29" s="1">
         <v>100</v>
@@ -1394,13 +1477,13 @@
         <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="3">
-        <v>11249924</v>
+        <v>35</v>
+      </c>
+      <c r="E30" s="2">
+        <v>10209315</v>
       </c>
       <c r="F30" s="1">
         <v>100</v>
@@ -1423,13 +1506,13 @@
         <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="3">
-        <v>10889994</v>
+        <v>36</v>
+      </c>
+      <c r="E31" s="2">
+        <v>10209315</v>
       </c>
       <c r="F31" s="1">
         <v>100</v>
@@ -1452,13 +1535,13 @@
         <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="3">
-        <v>10889996</v>
+        <v>37</v>
+      </c>
+      <c r="E32" s="2">
+        <v>10209288</v>
       </c>
       <c r="F32" s="1">
         <v>100</v>
@@ -1481,13 +1564,13 @@
         <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="3">
-        <v>11249907</v>
+        <v>38</v>
+      </c>
+      <c r="E33" s="2">
+        <v>10209315</v>
       </c>
       <c r="F33" s="1">
         <v>100</v>
@@ -1502,7 +1585,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" ht="54">
       <c r="A34" s="1">
         <v>200</v>
       </c>
@@ -1510,13 +1593,13 @@
         <v>16</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="3">
-        <v>10705085</v>
+        <v>39</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="F34" s="1">
         <v>100</v>
@@ -1539,13 +1622,13 @@
         <v>17</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" s="3">
-        <v>11249914</v>
+        <v>10209288</v>
       </c>
       <c r="F35" s="1">
         <v>100</v>
